--- a/data/pca/factorExposure/factorExposure_2019-04-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1304559323253127</v>
+        <v>-0.0769452034118359</v>
       </c>
       <c r="C2">
-        <v>-0.01682786501587724</v>
+        <v>-0.03556331020163488</v>
       </c>
       <c r="D2">
-        <v>-0.05074386254967302</v>
+        <v>-0.004861034273564567</v>
       </c>
       <c r="E2">
-        <v>-0.10720057518442</v>
+        <v>-0.04144270647895622</v>
       </c>
       <c r="F2">
-        <v>0.1007061560025944</v>
+        <v>-0.1418995971985283</v>
       </c>
       <c r="G2">
-        <v>-0.01055671895783482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1105166836962134</v>
+      </c>
+      <c r="H2">
+        <v>-0.0504910112488459</v>
+      </c>
+      <c r="I2">
+        <v>-0.004205643901573473</v>
+      </c>
+      <c r="J2">
+        <v>-0.07880567877227868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2253395025736055</v>
+        <v>-0.1664858554089211</v>
       </c>
       <c r="C3">
-        <v>0.09396032941723487</v>
+        <v>-0.07492423667575704</v>
       </c>
       <c r="D3">
-        <v>0.02065054881508502</v>
+        <v>0.05667115839247704</v>
       </c>
       <c r="E3">
-        <v>-0.3159268359401864</v>
+        <v>0.01691308054657458</v>
       </c>
       <c r="F3">
-        <v>-0.0007105771467166145</v>
+        <v>-0.3659020357134982</v>
       </c>
       <c r="G3">
-        <v>0.1457833299649602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.07708791539850125</v>
+      </c>
+      <c r="H3">
+        <v>-0.2638667991300108</v>
+      </c>
+      <c r="I3">
+        <v>-0.1083231985536464</v>
+      </c>
+      <c r="J3">
+        <v>-0.3257045115449334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1007601747314796</v>
+        <v>-0.07534464287645086</v>
       </c>
       <c r="C4">
-        <v>0.02629242834755334</v>
+        <v>-0.02602107068399235</v>
       </c>
       <c r="D4">
-        <v>-0.02808310241539098</v>
+        <v>0.03493731641233447</v>
       </c>
       <c r="E4">
-        <v>-0.07749968551508957</v>
+        <v>-0.03379732888648111</v>
       </c>
       <c r="F4">
-        <v>0.0365140593789138</v>
+        <v>-0.08408439607493826</v>
       </c>
       <c r="G4">
-        <v>0.01570978239435613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0429529069819086</v>
+      </c>
+      <c r="H4">
+        <v>-0.02239047448777095</v>
+      </c>
+      <c r="I4">
+        <v>-0.01300115669807276</v>
+      </c>
+      <c r="J4">
+        <v>-0.06815027513087957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01771754459605849</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.001541414996057353</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.007931335767535132</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002503238561989497</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.0012718353452889</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01830598705893998</v>
+      </c>
+      <c r="H6">
+        <v>-0.004965298326687518</v>
+      </c>
+      <c r="I6">
+        <v>0.009064350616182836</v>
+      </c>
+      <c r="J6">
+        <v>-0.002302207315364267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04268623131020565</v>
+        <v>-0.03530077573209175</v>
       </c>
       <c r="C7">
-        <v>0.003681774869972447</v>
+        <v>0.005962976176392615</v>
       </c>
       <c r="D7">
-        <v>-0.03462058726154808</v>
+        <v>0.03961293357731833</v>
       </c>
       <c r="E7">
-        <v>-0.07033446186718167</v>
+        <v>-0.02778966134390266</v>
       </c>
       <c r="F7">
-        <v>-0.05113300423414057</v>
+        <v>-0.05742452126078022</v>
       </c>
       <c r="G7">
-        <v>-0.01626932047130538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005090029493699687</v>
+      </c>
+      <c r="H7">
+        <v>-0.04616244221185972</v>
+      </c>
+      <c r="I7">
+        <v>0.02319841044422821</v>
+      </c>
+      <c r="J7">
+        <v>-0.04529694990161181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04262978049685512</v>
+        <v>-0.03134012324007896</v>
       </c>
       <c r="C8">
-        <v>0.03928679165349069</v>
+        <v>-0.02902445033999991</v>
       </c>
       <c r="D8">
-        <v>-0.009294834308173027</v>
+        <v>0.03556197979780436</v>
       </c>
       <c r="E8">
-        <v>-0.07236910194965358</v>
+        <v>-0.0137851456391352</v>
       </c>
       <c r="F8">
-        <v>0.006077771600670326</v>
+        <v>-0.07674809752467354</v>
       </c>
       <c r="G8">
-        <v>0.01372242944455344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02096324594172013</v>
+      </c>
+      <c r="H8">
+        <v>-0.04694814665052214</v>
+      </c>
+      <c r="I8">
+        <v>-0.01099812787166829</v>
+      </c>
+      <c r="J8">
+        <v>-0.0704012144633893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0874574383156393</v>
+        <v>-0.06236789698586411</v>
       </c>
       <c r="C9">
-        <v>0.0280002274821856</v>
+        <v>-0.02337379900163475</v>
       </c>
       <c r="D9">
-        <v>-0.03664352650574124</v>
+        <v>0.0390906608046052</v>
       </c>
       <c r="E9">
-        <v>-0.06529099222440797</v>
+        <v>-0.0333019385129515</v>
       </c>
       <c r="F9">
-        <v>0.02851917763921178</v>
+        <v>-0.08560408739378336</v>
       </c>
       <c r="G9">
-        <v>0.03769569621499692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04100935032403243</v>
+      </c>
+      <c r="H9">
+        <v>-0.018599541519879</v>
+      </c>
+      <c r="I9">
+        <v>0.003642002376592102</v>
+      </c>
+      <c r="J9">
+        <v>-0.0361380819665325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.008835244420178277</v>
+        <v>-0.01789800103578225</v>
       </c>
       <c r="C10">
-        <v>-0.1587746848445211</v>
+        <v>0.1219338105823634</v>
       </c>
       <c r="D10">
-        <v>0.01638928734551293</v>
+        <v>-0.09967845814949911</v>
       </c>
       <c r="E10">
-        <v>-0.06393082943356056</v>
+        <v>0.02591029098280723</v>
       </c>
       <c r="F10">
-        <v>0.01275392043234167</v>
+        <v>-0.06583702759840501</v>
       </c>
       <c r="G10">
-        <v>-0.02796876879856103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02282782670233165</v>
+      </c>
+      <c r="H10">
+        <v>0.0004875609092367086</v>
+      </c>
+      <c r="I10">
+        <v>-0.1123612736686749</v>
+      </c>
+      <c r="J10">
+        <v>-0.03829338956885989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05786001093706265</v>
+        <v>-0.04859838125200758</v>
       </c>
       <c r="C11">
-        <v>0.004568881004802154</v>
+        <v>-0.02434896452064136</v>
       </c>
       <c r="D11">
-        <v>0.006391775334028088</v>
+        <v>0.007986954972271721</v>
       </c>
       <c r="E11">
-        <v>-0.04017540141060431</v>
+        <v>-0.006268788421803921</v>
       </c>
       <c r="F11">
-        <v>0.005837398693202768</v>
+        <v>-0.04338669836081222</v>
       </c>
       <c r="G11">
-        <v>-0.03384363501904689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.009121821105831648</v>
+      </c>
+      <c r="H11">
+        <v>-0.002643041545825429</v>
+      </c>
+      <c r="I11">
+        <v>0.02771441192581293</v>
+      </c>
+      <c r="J11">
+        <v>-0.03282369109304682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0449850656994519</v>
+        <v>-0.04606303797341655</v>
       </c>
       <c r="C12">
-        <v>0.01118132737402597</v>
+        <v>-0.01729968196234578</v>
       </c>
       <c r="D12">
-        <v>0.002342936196563737</v>
+        <v>0.0164157687834071</v>
       </c>
       <c r="E12">
-        <v>-0.03121991115632354</v>
+        <v>-0.009723454531449249</v>
       </c>
       <c r="F12">
-        <v>0.0003178608339440007</v>
+        <v>-0.02210028012190856</v>
       </c>
       <c r="G12">
-        <v>-0.006085462577870538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0006323115388470414</v>
+      </c>
+      <c r="H12">
+        <v>-0.002998768339574424</v>
+      </c>
+      <c r="I12">
+        <v>0.02263531071034252</v>
+      </c>
+      <c r="J12">
+        <v>-0.01526596659227615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0635254267077129</v>
+        <v>-0.04152708966681887</v>
       </c>
       <c r="C13">
-        <v>0.0137625673483328</v>
+        <v>-0.0291903972434051</v>
       </c>
       <c r="D13">
-        <v>0.005606684795883643</v>
+        <v>0.001159062716616509</v>
       </c>
       <c r="E13">
-        <v>-0.1084847641424867</v>
+        <v>-0.006892982120283758</v>
       </c>
       <c r="F13">
-        <v>0.01419645507410277</v>
+        <v>-0.1041171615891966</v>
       </c>
       <c r="G13">
-        <v>-0.01297644173593342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02384049182091685</v>
+      </c>
+      <c r="H13">
+        <v>-0.04673604885787344</v>
+      </c>
+      <c r="I13">
+        <v>0.008350795412699577</v>
+      </c>
+      <c r="J13">
+        <v>-0.05914946131469696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03634512408879471</v>
+        <v>-0.02895368815331045</v>
       </c>
       <c r="C14">
-        <v>0.005883357307656935</v>
+        <v>-0.01023029046028741</v>
       </c>
       <c r="D14">
-        <v>-0.02210088096592793</v>
+        <v>0.01416457355955867</v>
       </c>
       <c r="E14">
-        <v>-0.01839214780176451</v>
+        <v>-0.02483986101238771</v>
       </c>
       <c r="F14">
-        <v>0.003306775178744802</v>
+        <v>-0.0383491006085517</v>
       </c>
       <c r="G14">
-        <v>-0.03275333596431081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03084619036508326</v>
+      </c>
+      <c r="H14">
+        <v>-0.04873771997843732</v>
+      </c>
+      <c r="I14">
+        <v>-0.004622605750473153</v>
+      </c>
+      <c r="J14">
+        <v>-0.02054472669580705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04901451330940553</v>
+        <v>-0.04334690817927862</v>
       </c>
       <c r="C16">
-        <v>0.02106318180329961</v>
+        <v>-0.02829834265586545</v>
       </c>
       <c r="D16">
-        <v>0.01031541622587066</v>
+        <v>0.0183254368106321</v>
       </c>
       <c r="E16">
-        <v>-0.03660172868436593</v>
+        <v>-0.003687043217924867</v>
       </c>
       <c r="F16">
-        <v>-0.00507270817970177</v>
+        <v>-0.03663928378456684</v>
       </c>
       <c r="G16">
-        <v>-0.01369780290619716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.004417091524608017</v>
+      </c>
+      <c r="H16">
+        <v>-0.009911584397928708</v>
+      </c>
+      <c r="I16">
+        <v>0.02397958660031568</v>
+      </c>
+      <c r="J16">
+        <v>-0.02731975142472149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.0530204435299999</v>
+        <v>-0.04617463442427531</v>
       </c>
       <c r="C19">
-        <v>0.02743547623036581</v>
+        <v>-0.03171188867848395</v>
       </c>
       <c r="D19">
-        <v>-0.003810789963405989</v>
+        <v>0.020276053287138</v>
       </c>
       <c r="E19">
-        <v>-0.07839826640138739</v>
+        <v>-0.01456794868208065</v>
       </c>
       <c r="F19">
-        <v>-0.01126529609143741</v>
+        <v>-0.0898729768228716</v>
       </c>
       <c r="G19">
-        <v>-0.0225414543765309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01454674137469644</v>
+      </c>
+      <c r="H19">
+        <v>-0.08384340207995621</v>
+      </c>
+      <c r="I19">
+        <v>-0.01293334025614058</v>
+      </c>
+      <c r="J19">
+        <v>-0.05601945100298625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.0385684226304507</v>
+        <v>-0.01876948364560636</v>
       </c>
       <c r="C20">
-        <v>0.03392559665524584</v>
+        <v>-0.02419306976081438</v>
       </c>
       <c r="D20">
-        <v>-0.01750393919859023</v>
+        <v>0.02537081251732978</v>
       </c>
       <c r="E20">
-        <v>-0.06073304342143492</v>
+        <v>-0.01983357678204101</v>
       </c>
       <c r="F20">
-        <v>-0.01600557950397962</v>
+        <v>-0.07059134212894581</v>
       </c>
       <c r="G20">
-        <v>-0.01164919461951739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01438351257774279</v>
+      </c>
+      <c r="H20">
+        <v>-0.06446845320838478</v>
+      </c>
+      <c r="I20">
+        <v>0.004606869669276828</v>
+      </c>
+      <c r="J20">
+        <v>-0.07777571493641523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03846897024304599</v>
+        <v>-0.02260139886661779</v>
       </c>
       <c r="C21">
-        <v>0.01626481138739544</v>
+        <v>-0.01494114327119791</v>
       </c>
       <c r="D21">
-        <v>-0.006575772281665523</v>
+        <v>0.02940817392471038</v>
       </c>
       <c r="E21">
-        <v>-0.09226148484327512</v>
+        <v>-0.003252462551994083</v>
       </c>
       <c r="F21">
-        <v>0.04641662564635423</v>
+        <v>-0.07882196546691206</v>
       </c>
       <c r="G21">
-        <v>-0.03199736958920619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03587934048296112</v>
+      </c>
+      <c r="H21">
+        <v>-0.02659918744848851</v>
+      </c>
+      <c r="I21">
+        <v>0.01406781266781574</v>
+      </c>
+      <c r="J21">
+        <v>-0.02355441801295068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04982834573503891</v>
+        <v>-0.04214822336562993</v>
       </c>
       <c r="C24">
-        <v>0.01332058946211753</v>
+        <v>-0.01891404100191086</v>
       </c>
       <c r="D24">
-        <v>0.0004425495546244354</v>
+        <v>0.01140245781153858</v>
       </c>
       <c r="E24">
-        <v>-0.04493204700261415</v>
+        <v>-0.008103259622088974</v>
       </c>
       <c r="F24">
-        <v>-0.002823227239727951</v>
+        <v>-0.04336102680306977</v>
       </c>
       <c r="G24">
-        <v>-0.007959023129708469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.00334467843556076</v>
+      </c>
+      <c r="H24">
+        <v>-0.008138647617976138</v>
+      </c>
+      <c r="I24">
+        <v>0.02437858769720257</v>
+      </c>
+      <c r="J24">
+        <v>-0.0337999136703992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04982529231199093</v>
+        <v>-0.04427529472730606</v>
       </c>
       <c r="C25">
-        <v>0.003920332139921501</v>
+        <v>-0.01940835781999091</v>
       </c>
       <c r="D25">
-        <v>0.002649308653741167</v>
+        <v>0.01064153308249633</v>
       </c>
       <c r="E25">
-        <v>-0.04358630422936121</v>
+        <v>-0.00652615043855771</v>
       </c>
       <c r="F25">
-        <v>0.007430964797237274</v>
+        <v>-0.04734857012478175</v>
       </c>
       <c r="G25">
-        <v>-0.01869869464124174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003577064942582104</v>
+      </c>
+      <c r="H25">
+        <v>-0.001685815425698969</v>
+      </c>
+      <c r="I25">
+        <v>0.02266307665088402</v>
+      </c>
+      <c r="J25">
+        <v>-0.02409176601912111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.009762883206595102</v>
+        <v>-0.01456449921920961</v>
       </c>
       <c r="C26">
-        <v>0.01809867014684166</v>
+        <v>-0.01786744186636299</v>
       </c>
       <c r="D26">
-        <v>-0.009456179758280236</v>
+        <v>0.008338736437310937</v>
       </c>
       <c r="E26">
-        <v>-0.04657055251954918</v>
+        <v>-0.001409634014682944</v>
       </c>
       <c r="F26">
-        <v>0.01719732482473145</v>
+        <v>-0.05128701257759954</v>
       </c>
       <c r="G26">
-        <v>-0.01744484934123857</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02026071103091504</v>
+      </c>
+      <c r="H26">
+        <v>-0.02694133167853453</v>
+      </c>
+      <c r="I26">
+        <v>0.01942694317643077</v>
+      </c>
+      <c r="J26">
+        <v>-0.03483958626053029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1108555531180625</v>
+        <v>-0.08006382921890215</v>
       </c>
       <c r="C27">
-        <v>0.01521864864914013</v>
+        <v>-0.02224768724207843</v>
       </c>
       <c r="D27">
-        <v>-0.02895617022726888</v>
+        <v>0.01844803270736753</v>
       </c>
       <c r="E27">
-        <v>-0.107501416942941</v>
+        <v>-0.031966702316878</v>
       </c>
       <c r="F27">
-        <v>0.01299812139953318</v>
+        <v>-0.07965199676369934</v>
       </c>
       <c r="G27">
-        <v>0.002737958372685625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01587078985104986</v>
+      </c>
+      <c r="H27">
+        <v>-0.006319981782859797</v>
+      </c>
+      <c r="I27">
+        <v>0.003104296644059765</v>
+      </c>
+      <c r="J27">
+        <v>-0.04349049268744395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.008688387271387354</v>
+        <v>-0.03322269535508943</v>
       </c>
       <c r="C28">
-        <v>-0.2446820614470987</v>
+        <v>0.1852103268584135</v>
       </c>
       <c r="D28">
-        <v>0.0238643304992167</v>
+        <v>-0.1392516717505127</v>
       </c>
       <c r="E28">
-        <v>-0.03586462166157908</v>
+        <v>0.03767364344970338</v>
       </c>
       <c r="F28">
-        <v>0.0136462241012718</v>
+        <v>-0.04887984569963311</v>
       </c>
       <c r="G28">
-        <v>-0.0008579130150690071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02846691293212378</v>
+      </c>
+      <c r="H28">
+        <v>0.01376416628961379</v>
+      </c>
+      <c r="I28">
+        <v>-0.1560347222206883</v>
+      </c>
+      <c r="J28">
+        <v>-0.05207218293848515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02025458897830298</v>
+        <v>-0.02106371537968735</v>
       </c>
       <c r="C29">
-        <v>0.01315616548581514</v>
+        <v>-0.0103565451231227</v>
       </c>
       <c r="D29">
-        <v>-0.02465792017706214</v>
+        <v>0.01913414474778454</v>
       </c>
       <c r="E29">
-        <v>-0.02529102617267412</v>
+        <v>-0.02374420629937956</v>
       </c>
       <c r="F29">
-        <v>0.01568234045588926</v>
+        <v>-0.03876079632703074</v>
       </c>
       <c r="G29">
-        <v>-0.03171208679109015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03356471894773885</v>
+      </c>
+      <c r="H29">
+        <v>-0.04567843530141478</v>
+      </c>
+      <c r="I29">
+        <v>0.00189440950104595</v>
+      </c>
+      <c r="J29">
+        <v>-0.009291801231974752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1080027997425467</v>
+        <v>-0.09445631440790613</v>
       </c>
       <c r="C30">
-        <v>0.007889325774173298</v>
+        <v>-0.05573291428684198</v>
       </c>
       <c r="D30">
-        <v>-0.02689339344662976</v>
+        <v>-0.008675272034713187</v>
       </c>
       <c r="E30">
-        <v>-0.1125533207017673</v>
+        <v>-0.03119923804848831</v>
       </c>
       <c r="F30">
-        <v>0.001521837804330854</v>
+        <v>-0.1078633050489479</v>
       </c>
       <c r="G30">
-        <v>-0.05292381277337854</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01135272998325191</v>
+      </c>
+      <c r="H30">
+        <v>-0.01389548845180511</v>
+      </c>
+      <c r="I30">
+        <v>0.02958105611145614</v>
+      </c>
+      <c r="J30">
+        <v>-0.01681383869713399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05889744884835719</v>
+        <v>-0.06299290709246837</v>
       </c>
       <c r="C31">
-        <v>0.01296061859478457</v>
+        <v>-0.02358648168521009</v>
       </c>
       <c r="D31">
-        <v>-0.01983842107907182</v>
+        <v>0.001975987543947032</v>
       </c>
       <c r="E31">
-        <v>0.02102565826815118</v>
+        <v>-0.02064376046118613</v>
       </c>
       <c r="F31">
-        <v>0.009785635992531631</v>
+        <v>-0.003678283048139826</v>
       </c>
       <c r="G31">
-        <v>-0.05540435014476391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04306833814875686</v>
+      </c>
+      <c r="H31">
+        <v>-0.02810262051425051</v>
+      </c>
+      <c r="I31">
+        <v>-0.00311151114371545</v>
+      </c>
+      <c r="J31">
+        <v>-0.01753387761972105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07092895611159618</v>
+        <v>-0.0471285333272841</v>
       </c>
       <c r="C32">
-        <v>0.02331894004148326</v>
+        <v>-0.03201934210586337</v>
       </c>
       <c r="D32">
-        <v>-0.01864368818961057</v>
+        <v>0.03983767519650645</v>
       </c>
       <c r="E32">
-        <v>-0.1083924279190784</v>
+        <v>-0.02732798856209902</v>
       </c>
       <c r="F32">
-        <v>-0.009235413161483833</v>
+        <v>-0.09405189343121625</v>
       </c>
       <c r="G32">
-        <v>-0.04304721368423169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01456861560634054</v>
+      </c>
+      <c r="H32">
+        <v>-0.03577935737765786</v>
+      </c>
+      <c r="I32">
+        <v>-0.002594409376624209</v>
+      </c>
+      <c r="J32">
+        <v>-0.04429901778219471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06896232730107556</v>
+        <v>-0.05754913579866634</v>
       </c>
       <c r="C33">
-        <v>0.03166759489531334</v>
+        <v>-0.05052097617159831</v>
       </c>
       <c r="D33">
-        <v>-0.01367881866869536</v>
+        <v>0.01210615624551141</v>
       </c>
       <c r="E33">
-        <v>-0.07502777398996471</v>
+        <v>-0.006973504749428948</v>
       </c>
       <c r="F33">
-        <v>0.04570705118002492</v>
+        <v>-0.08268559775600945</v>
       </c>
       <c r="G33">
-        <v>-0.02200229480306701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03581208350557549</v>
+      </c>
+      <c r="H33">
+        <v>-0.03315542317666897</v>
+      </c>
+      <c r="I33">
+        <v>0.03010519735735354</v>
+      </c>
+      <c r="J33">
+        <v>-0.04167576453661003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.0493211176920275</v>
+        <v>-0.04514004092840542</v>
       </c>
       <c r="C34">
-        <v>0.01278882017037336</v>
+        <v>-0.020791915352029</v>
       </c>
       <c r="D34">
-        <v>0.002044484081876283</v>
+        <v>0.01835950576806054</v>
       </c>
       <c r="E34">
-        <v>-0.02371789415451116</v>
+        <v>-0.01460875646900081</v>
       </c>
       <c r="F34">
-        <v>-0.004982126657868699</v>
+        <v>-0.03563472337602411</v>
       </c>
       <c r="G34">
-        <v>-0.01661651928488904</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.004859433531249027</v>
+      </c>
+      <c r="H34">
+        <v>-0.01277601133078862</v>
+      </c>
+      <c r="I34">
+        <v>0.02165285723934446</v>
+      </c>
+      <c r="J34">
+        <v>-0.02199608115050284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01230722180726723</v>
+        <v>-0.01513762183449456</v>
       </c>
       <c r="C36">
-        <v>-0.01001450308951223</v>
+        <v>0.0006034369247747925</v>
       </c>
       <c r="D36">
-        <v>-0.008405997292714237</v>
+        <v>0.00475788267517643</v>
       </c>
       <c r="E36">
-        <v>-0.02290270949363605</v>
+        <v>-0.008816714159331787</v>
       </c>
       <c r="F36">
-        <v>0.00851452194019198</v>
+        <v>-0.02935822994061634</v>
       </c>
       <c r="G36">
-        <v>-0.02656889807643243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02373280899426513</v>
+      </c>
+      <c r="H36">
+        <v>-0.02660917414277716</v>
+      </c>
+      <c r="I36">
+        <v>0.004931733613357513</v>
+      </c>
+      <c r="J36">
+        <v>-0.003992995107336967</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05625786953195263</v>
+        <v>-0.03387104287057621</v>
       </c>
       <c r="C38">
-        <v>0.005748782935071939</v>
+        <v>-0.008129027203385625</v>
       </c>
       <c r="D38">
-        <v>-0.02749743754888163</v>
+        <v>0.008375791013436912</v>
       </c>
       <c r="E38">
-        <v>-0.03710179897146344</v>
+        <v>-0.01048486839492634</v>
       </c>
       <c r="F38">
-        <v>0.004808221713783617</v>
+        <v>-0.05271734786360792</v>
       </c>
       <c r="G38">
-        <v>0.02286578292179649</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02823727571396821</v>
+      </c>
+      <c r="H38">
+        <v>-0.01186755627278612</v>
+      </c>
+      <c r="I38">
+        <v>0.008779782279926346</v>
+      </c>
+      <c r="J38">
+        <v>0.003896580329780418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07664114487373362</v>
+        <v>-0.05746431775472254</v>
       </c>
       <c r="C39">
-        <v>0.01016157807659645</v>
+        <v>-0.03584044943277021</v>
       </c>
       <c r="D39">
-        <v>-0.00547491534597574</v>
+        <v>0.01791903765820315</v>
       </c>
       <c r="E39">
-        <v>-0.0440401319359916</v>
+        <v>-0.015915655562705</v>
       </c>
       <c r="F39">
-        <v>0.02009381101379082</v>
+        <v>-0.05915260187410799</v>
       </c>
       <c r="G39">
-        <v>-0.01975371014282584</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01716187837997826</v>
+      </c>
+      <c r="H39">
+        <v>0.0006499508176281029</v>
+      </c>
+      <c r="I39">
+        <v>0.04790843605886878</v>
+      </c>
+      <c r="J39">
+        <v>-0.02569717650766016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07383977267253532</v>
+        <v>-0.05647067809153995</v>
       </c>
       <c r="C40">
-        <v>0.02557547336581148</v>
+        <v>-0.04275085706646002</v>
       </c>
       <c r="D40">
-        <v>-0.01034919087429995</v>
+        <v>0.003596415931084083</v>
       </c>
       <c r="E40">
-        <v>-0.1038261664930561</v>
+        <v>-0.02126134906109245</v>
       </c>
       <c r="F40">
-        <v>0.03306287259945859</v>
+        <v>-0.1017757828376666</v>
       </c>
       <c r="G40">
-        <v>0.02662506595779385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02871567572474384</v>
+      </c>
+      <c r="H40">
+        <v>-0.0515163182226297</v>
+      </c>
+      <c r="I40">
+        <v>0.02663102115210294</v>
+      </c>
+      <c r="J40">
+        <v>-0.1073388908920709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003013658428076936</v>
+        <v>-0.002497567042261697</v>
       </c>
       <c r="C41">
-        <v>0.01005999588197505</v>
+        <v>-0.009007047146656818</v>
       </c>
       <c r="D41">
-        <v>-0.02326599124361079</v>
+        <v>0.007264200731638721</v>
       </c>
       <c r="E41">
-        <v>-0.01087375832048737</v>
+        <v>-0.007092656687778409</v>
       </c>
       <c r="F41">
-        <v>0.02799694395214397</v>
+        <v>-0.01574433015754254</v>
       </c>
       <c r="G41">
-        <v>-0.03200359489982964</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03880366466458266</v>
+      </c>
+      <c r="H41">
+        <v>-0.03123782210675074</v>
+      </c>
+      <c r="I41">
+        <v>-0.01395493900661158</v>
+      </c>
+      <c r="J41">
+        <v>-0.02082798512453141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1385714364426496</v>
+        <v>-0.2185350062137575</v>
       </c>
       <c r="C42">
-        <v>0.2243310397358267</v>
+        <v>-0.2000960057951639</v>
       </c>
       <c r="D42">
-        <v>0.9248758188478242</v>
+        <v>0.06275961212825942</v>
       </c>
       <c r="E42">
-        <v>0.003265648189511945</v>
+        <v>0.9257898460192591</v>
       </c>
       <c r="F42">
-        <v>-0.006785436880126729</v>
+        <v>0.1460382144521324</v>
       </c>
       <c r="G42">
-        <v>-0.07833303465464811</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.004597764797621878</v>
+      </c>
+      <c r="H42">
+        <v>-0.001805212568965891</v>
+      </c>
+      <c r="I42">
+        <v>-0.03692538046485624</v>
+      </c>
+      <c r="J42">
+        <v>-0.0403304426424284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.007006235403282293</v>
+        <v>-0.004782737458792073</v>
       </c>
       <c r="C43">
-        <v>0.01452704877772913</v>
+        <v>-0.01285523638266529</v>
       </c>
       <c r="D43">
-        <v>-0.01877754594660299</v>
+        <v>0.006702458395914184</v>
       </c>
       <c r="E43">
-        <v>-0.0323128309244449</v>
+        <v>-0.007255990255249273</v>
       </c>
       <c r="F43">
-        <v>0.003116421537590704</v>
+        <v>-0.02939291356640449</v>
       </c>
       <c r="G43">
-        <v>-0.02526024939711092</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02231725202853539</v>
+      </c>
+      <c r="H43">
+        <v>-0.0309531318293763</v>
+      </c>
+      <c r="I43">
+        <v>-0.004101347664209031</v>
+      </c>
+      <c r="J43">
+        <v>-0.02733836729622625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.0396423348106467</v>
+        <v>-0.02806151156934114</v>
       </c>
       <c r="C44">
-        <v>0.03495488648034104</v>
+        <v>-0.03144917692206396</v>
       </c>
       <c r="D44">
-        <v>-0.01888187839873721</v>
+        <v>0.02460828632152735</v>
       </c>
       <c r="E44">
-        <v>-0.1175331970661551</v>
+        <v>-0.00711899387110495</v>
       </c>
       <c r="F44">
-        <v>0.08187786530750754</v>
+        <v>-0.1227021066708642</v>
       </c>
       <c r="G44">
-        <v>-0.03918149018146966</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06286244485689882</v>
+      </c>
+      <c r="H44">
+        <v>-0.09994096115827945</v>
+      </c>
+      <c r="I44">
+        <v>-0.01449646412607361</v>
+      </c>
+      <c r="J44">
+        <v>-0.04145832551240679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.0229250718586379</v>
+        <v>-0.02359257130938723</v>
       </c>
       <c r="C46">
-        <v>0.01027456477025623</v>
+        <v>-0.02237835654992945</v>
       </c>
       <c r="D46">
-        <v>-0.02651447031866412</v>
+        <v>0.01267627384473686</v>
       </c>
       <c r="E46">
-        <v>-0.02376771819951304</v>
+        <v>-0.02106828948289527</v>
       </c>
       <c r="F46">
-        <v>0.02436154899742587</v>
+        <v>-0.04728365082420356</v>
       </c>
       <c r="G46">
-        <v>-0.03562077384356098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03154249711766122</v>
+      </c>
+      <c r="H46">
+        <v>-0.04992712754103306</v>
+      </c>
+      <c r="I46">
+        <v>-0.001594534046692238</v>
+      </c>
+      <c r="J46">
+        <v>-0.02886819869968517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.083972537806834</v>
+        <v>-0.09115468702327807</v>
       </c>
       <c r="C47">
-        <v>0.005984217166200284</v>
+        <v>-0.01976553701804514</v>
       </c>
       <c r="D47">
-        <v>-0.01969013643771894</v>
+        <v>0.004806452874553605</v>
       </c>
       <c r="E47">
-        <v>0.02262639872025583</v>
+        <v>-0.02513967436048207</v>
       </c>
       <c r="F47">
-        <v>0.01254318468527365</v>
+        <v>0.005136502947400957</v>
       </c>
       <c r="G47">
-        <v>-0.03929662395746351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04441147227578462</v>
+      </c>
+      <c r="H47">
+        <v>-0.05045076123324039</v>
+      </c>
+      <c r="I47">
+        <v>-0.005162749316591005</v>
+      </c>
+      <c r="J47">
+        <v>-0.02626046520856632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01555503879594265</v>
+        <v>-0.01776907988625339</v>
       </c>
       <c r="C48">
-        <v>0.01702903868919661</v>
+        <v>-0.01545752064981827</v>
       </c>
       <c r="D48">
-        <v>-0.01878583209692283</v>
+        <v>0.01315710520790172</v>
       </c>
       <c r="E48">
-        <v>-0.03301389895776964</v>
+        <v>-0.01221675516072136</v>
       </c>
       <c r="F48">
-        <v>0.01126614049327951</v>
+        <v>-0.03331696618650754</v>
       </c>
       <c r="G48">
-        <v>-0.01181432898376663</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01525357199268914</v>
+      </c>
+      <c r="H48">
+        <v>-0.0216954574428636</v>
+      </c>
+      <c r="I48">
+        <v>-0.005638961578122752</v>
+      </c>
+      <c r="J48">
+        <v>-0.01808775623416493</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08515790413105807</v>
+        <v>-0.08802200637500782</v>
       </c>
       <c r="C50">
-        <v>0.02600113522271013</v>
+        <v>-0.02345189389997504</v>
       </c>
       <c r="D50">
-        <v>-0.0277690914657372</v>
+        <v>0.02697459517447819</v>
       </c>
       <c r="E50">
-        <v>0.01763331065900949</v>
+        <v>-0.02290910858208123</v>
       </c>
       <c r="F50">
-        <v>0.002486847957834606</v>
+        <v>-0.001808900632487385</v>
       </c>
       <c r="G50">
-        <v>-0.04326967167578326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008040844917805729</v>
+      </c>
+      <c r="H50">
+        <v>-0.04115109192577059</v>
+      </c>
+      <c r="I50">
+        <v>0.01646279516820342</v>
+      </c>
+      <c r="J50">
+        <v>0.004260915866334357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07034832277811701</v>
+        <v>-0.04775592260411514</v>
       </c>
       <c r="C51">
-        <v>-0.02346383630819746</v>
+        <v>-0.00627739539576279</v>
       </c>
       <c r="D51">
-        <v>-0.002169398013801523</v>
+        <v>-0.01353427881461923</v>
       </c>
       <c r="E51">
-        <v>-0.0795039621580788</v>
+        <v>-0.00941919022863507</v>
       </c>
       <c r="F51">
-        <v>0.0509394294404815</v>
+        <v>-0.09499569118766571</v>
       </c>
       <c r="G51">
-        <v>-0.1003650539725549</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05826182963243573</v>
+      </c>
+      <c r="H51">
+        <v>-0.04737471771106904</v>
+      </c>
+      <c r="I51">
+        <v>-0.007098121054206871</v>
+      </c>
+      <c r="J51">
+        <v>-0.05117017326815707</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1458395215832364</v>
+        <v>-0.1280153598130929</v>
       </c>
       <c r="C53">
-        <v>0.005384488694222956</v>
+        <v>-0.03218928082043258</v>
       </c>
       <c r="D53">
-        <v>-0.03971533128110134</v>
+        <v>0.01053411584193373</v>
       </c>
       <c r="E53">
-        <v>0.04392274845645717</v>
+        <v>-0.04704762496754832</v>
       </c>
       <c r="F53">
-        <v>-0.003677106337321216</v>
+        <v>0.03675107797775685</v>
       </c>
       <c r="G53">
-        <v>-0.03851562326738479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02789620603465629</v>
+      </c>
+      <c r="H53">
+        <v>0.007065575378838286</v>
+      </c>
+      <c r="I53">
+        <v>-0.02448069059207055</v>
+      </c>
+      <c r="J53">
+        <v>-0.04026967844786863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02681061877261324</v>
+        <v>-0.02389730955390576</v>
       </c>
       <c r="C54">
-        <v>-0.007385320450935646</v>
+        <v>-0.003091581510888162</v>
       </c>
       <c r="D54">
-        <v>-0.0309948476341071</v>
+        <v>0.008183596128265835</v>
       </c>
       <c r="E54">
-        <v>-0.03134856254188177</v>
+        <v>-0.02662127121966128</v>
       </c>
       <c r="F54">
-        <v>0.04958903990230932</v>
+        <v>-0.04242652017169186</v>
       </c>
       <c r="G54">
-        <v>-0.01831145920848756</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05254614255117822</v>
+      </c>
+      <c r="H54">
+        <v>-0.03982017007176084</v>
+      </c>
+      <c r="I54">
+        <v>-0.02900005402531008</v>
+      </c>
+      <c r="J54">
+        <v>-0.002982010488801955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09937923989066788</v>
+        <v>-0.1022765322480192</v>
       </c>
       <c r="C55">
-        <v>-0.007450438557671689</v>
+        <v>-0.01030600279155104</v>
       </c>
       <c r="D55">
-        <v>-0.03463893311273366</v>
+        <v>0.02009944459867311</v>
       </c>
       <c r="E55">
-        <v>0.01020029712596346</v>
+        <v>-0.03259829705734484</v>
       </c>
       <c r="F55">
-        <v>-0.03383970669562147</v>
+        <v>0.02383774320562147</v>
       </c>
       <c r="G55">
-        <v>0.00565390180965357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.004529690075154456</v>
+      </c>
+      <c r="H55">
+        <v>-0.01666042267442969</v>
+      </c>
+      <c r="I55">
+        <v>-0.003673394912445965</v>
+      </c>
+      <c r="J55">
+        <v>-0.03555109993592952</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.178969642429622</v>
+        <v>-0.169666388752173</v>
       </c>
       <c r="C56">
-        <v>-0.01851423003135302</v>
+        <v>-0.0120639548882472</v>
       </c>
       <c r="D56">
-        <v>-0.07303584864419232</v>
+        <v>0.007199238053024981</v>
       </c>
       <c r="E56">
-        <v>0.08374777527672783</v>
+        <v>-0.08491769472298326</v>
       </c>
       <c r="F56">
-        <v>-0.06784038281564012</v>
+        <v>0.07872956599362252</v>
       </c>
       <c r="G56">
-        <v>0.01215520764008992</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02494818522469595</v>
+      </c>
+      <c r="H56">
+        <v>0.04249959032058776</v>
+      </c>
+      <c r="I56">
+        <v>-0.008460029658654675</v>
+      </c>
+      <c r="J56">
+        <v>-0.05009212034183664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09398982185004685</v>
+        <v>-0.07137764619509332</v>
       </c>
       <c r="C57">
-        <v>0.01761070005115249</v>
+        <v>-0.03488988828861495</v>
       </c>
       <c r="D57">
-        <v>-0.03056787419600579</v>
+        <v>0.0034061863925576</v>
       </c>
       <c r="E57">
-        <v>-0.05371834277069761</v>
+        <v>-0.0146490028652633</v>
       </c>
       <c r="F57">
-        <v>0.02978153476769959</v>
+        <v>-0.06796905139066942</v>
       </c>
       <c r="G57">
-        <v>-0.01551928594022391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02598865042178638</v>
+      </c>
+      <c r="H57">
+        <v>-0.02201683491672203</v>
+      </c>
+      <c r="I57">
+        <v>0.02279941846786896</v>
+      </c>
+      <c r="J57">
+        <v>-0.03245130821878585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1740818257301307</v>
+        <v>-0.1988698310665909</v>
       </c>
       <c r="C58">
-        <v>-0.002602632437192775</v>
+        <v>-0.09962891143985109</v>
       </c>
       <c r="D58">
-        <v>0.0335912155044857</v>
+        <v>-0.03971223005406598</v>
       </c>
       <c r="E58">
-        <v>-0.1375772399598517</v>
+        <v>0.01143874181341887</v>
       </c>
       <c r="F58">
-        <v>-0.04580760547554085</v>
+        <v>-0.2345111902781758</v>
       </c>
       <c r="G58">
-        <v>-0.02173142374690798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1339343227370792</v>
+      </c>
+      <c r="H58">
+        <v>-0.4040975495143344</v>
+      </c>
+      <c r="I58">
+        <v>-0.1369022199780867</v>
+      </c>
+      <c r="J58">
+        <v>0.7397160417896284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.002634402453000193</v>
+        <v>-0.03563570032211501</v>
       </c>
       <c r="C59">
-        <v>-0.2034679381526406</v>
+        <v>0.14857008425422</v>
       </c>
       <c r="D59">
-        <v>-0.006137408595702267</v>
+        <v>-0.1339893259201887</v>
       </c>
       <c r="E59">
-        <v>-0.0527928583941415</v>
+        <v>0.003670393849062481</v>
       </c>
       <c r="F59">
-        <v>0.008900329328604861</v>
+        <v>-0.06447671196577358</v>
       </c>
       <c r="G59">
-        <v>-0.0160507136289603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00317389121691316</v>
+      </c>
+      <c r="H59">
+        <v>0.01514212697545997</v>
+      </c>
+      <c r="I59">
+        <v>-0.06501660001333949</v>
+      </c>
+      <c r="J59">
+        <v>-0.0123802580713455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1837699306142615</v>
+        <v>-0.1811472821648868</v>
       </c>
       <c r="C60">
-        <v>-0.1114169830429894</v>
+        <v>0.01589329371293925</v>
       </c>
       <c r="D60">
-        <v>-0.02524158661725551</v>
+        <v>-0.07463800738504282</v>
       </c>
       <c r="E60">
-        <v>-0.1802800841476539</v>
+        <v>-0.01020867584170975</v>
       </c>
       <c r="F60">
-        <v>0.03502883244920699</v>
+        <v>-0.1995806836346522</v>
       </c>
       <c r="G60">
-        <v>-0.01566357417632939</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1013650359370664</v>
+      </c>
+      <c r="H60">
+        <v>0.256485396787101</v>
+      </c>
+      <c r="I60">
+        <v>0.08549260366986287</v>
+      </c>
+      <c r="J60">
+        <v>0.02640826932240499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04537939553475819</v>
+        <v>-0.03669573534461928</v>
       </c>
       <c r="C61">
-        <v>0.0001006180925223604</v>
+        <v>-0.01759765386228816</v>
       </c>
       <c r="D61">
-        <v>0.003789390243411588</v>
+        <v>0.01315159554758184</v>
       </c>
       <c r="E61">
-        <v>-0.05105563819185</v>
+        <v>-0.003205978426052141</v>
       </c>
       <c r="F61">
-        <v>0.01292868587213951</v>
+        <v>-0.04684847506406009</v>
       </c>
       <c r="G61">
-        <v>-0.01088310711475561</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008792964659973037</v>
+      </c>
+      <c r="H61">
+        <v>0.003748577880679473</v>
+      </c>
+      <c r="I61">
+        <v>0.04624472529753718</v>
+      </c>
+      <c r="J61">
+        <v>-0.006483733320795916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04609057490235667</v>
+        <v>-0.03150420987212894</v>
       </c>
       <c r="C63">
-        <v>-0.00693910121037132</v>
+        <v>-0.01453184732933258</v>
       </c>
       <c r="D63">
-        <v>-0.01785516966337352</v>
+        <v>0.007585398764193153</v>
       </c>
       <c r="E63">
-        <v>-0.03784790643308663</v>
+        <v>-0.01478913294689367</v>
       </c>
       <c r="F63">
-        <v>0.005414114865396455</v>
+        <v>-0.03109893177883113</v>
       </c>
       <c r="G63">
-        <v>-0.01799877268309459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01764562007148755</v>
+      </c>
+      <c r="H63">
+        <v>-0.03678899449145376</v>
+      </c>
+      <c r="I63">
+        <v>-0.01181231601249534</v>
+      </c>
+      <c r="J63">
+        <v>-0.04759958506681954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.07927120948168445</v>
+        <v>-0.05512508831016341</v>
       </c>
       <c r="C64">
-        <v>0.03620484677399351</v>
+        <v>-0.02954973031715278</v>
       </c>
       <c r="D64">
-        <v>-0.06802784534728737</v>
+        <v>0.0389115518375772</v>
       </c>
       <c r="E64">
-        <v>-0.06675537528321207</v>
+        <v>-0.04141347908043626</v>
       </c>
       <c r="F64">
-        <v>0.06113041350790994</v>
+        <v>-0.06368367142204555</v>
       </c>
       <c r="G64">
-        <v>0.01984888720134458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05783878036780443</v>
+      </c>
+      <c r="H64">
+        <v>0.008425683044674243</v>
+      </c>
+      <c r="I64">
+        <v>0.007946993744792385</v>
+      </c>
+      <c r="J64">
+        <v>-0.08660339759987822</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.0194857199859816</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.001161277537570408</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.00841852652847214</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.002615990029885054</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001543062592717549</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02016024381839794</v>
+      </c>
+      <c r="H65">
+        <v>-0.001089238089701392</v>
+      </c>
+      <c r="I65">
+        <v>0.01075317168944349</v>
+      </c>
+      <c r="J65">
+        <v>-0.002598136030496649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09540928486491322</v>
+        <v>-0.06913572872248946</v>
       </c>
       <c r="C66">
-        <v>0.01921365608048076</v>
+        <v>-0.05040610570452336</v>
       </c>
       <c r="D66">
-        <v>-0.04533282643560423</v>
+        <v>0.01875453764899083</v>
       </c>
       <c r="E66">
-        <v>-0.08107991880460637</v>
+        <v>-0.04477599952232183</v>
       </c>
       <c r="F66">
-        <v>0.04004137553525954</v>
+        <v>-0.07610803202678802</v>
       </c>
       <c r="G66">
-        <v>-0.03063713601465816</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01533942783271257</v>
+      </c>
+      <c r="H66">
+        <v>0.006184335019245315</v>
+      </c>
+      <c r="I66">
+        <v>0.06727415375038112</v>
+      </c>
+      <c r="J66">
+        <v>-0.0452134255751502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06333527412063182</v>
+        <v>-0.04529723034520564</v>
       </c>
       <c r="C67">
-        <v>-0.01762236584220246</v>
+        <v>0.003566672384986877</v>
       </c>
       <c r="D67">
-        <v>-0.01250279005517827</v>
+        <v>-0.005168835750857509</v>
       </c>
       <c r="E67">
-        <v>-0.03083294680528674</v>
+        <v>-0.00752096320401214</v>
       </c>
       <c r="F67">
-        <v>0.006967847385453149</v>
+        <v>-0.04107810037374535</v>
       </c>
       <c r="G67">
-        <v>0.03470115185969988</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03261958785313169</v>
+      </c>
+      <c r="H67">
+        <v>0.01204985619914455</v>
+      </c>
+      <c r="I67">
+        <v>0.03935327818479417</v>
+      </c>
+      <c r="J67">
+        <v>0.00371064745418169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.001644284660126377</v>
+        <v>-0.04218000394914448</v>
       </c>
       <c r="C68">
-        <v>-0.247174345909527</v>
+        <v>0.1788964115306716</v>
       </c>
       <c r="D68">
-        <v>0.01381394115466935</v>
+        <v>-0.1521286914356584</v>
       </c>
       <c r="E68">
-        <v>-0.03969111019834404</v>
+        <v>0.01578859160652139</v>
       </c>
       <c r="F68">
-        <v>0.003378228094811093</v>
+        <v>-0.04904597171891012</v>
       </c>
       <c r="G68">
-        <v>-0.02841134954156567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.005081714733079377</v>
+      </c>
+      <c r="H68">
+        <v>0.007227518921955543</v>
+      </c>
+      <c r="I68">
+        <v>-0.1688122320680599</v>
+      </c>
+      <c r="J68">
+        <v>-0.004594367788345017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06945882567835293</v>
+        <v>-0.07159442718455346</v>
       </c>
       <c r="C69">
-        <v>0.00865909848552994</v>
+        <v>-0.01943105078227223</v>
       </c>
       <c r="D69">
-        <v>-0.02372606817843296</v>
+        <v>0.005623285443355283</v>
       </c>
       <c r="E69">
-        <v>0.01049342109049929</v>
+        <v>-0.03038585236391896</v>
       </c>
       <c r="F69">
-        <v>0.00381420304187687</v>
+        <v>-0.004422274781990345</v>
       </c>
       <c r="G69">
-        <v>-0.02732893561963743</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0311533277333419</v>
+      </c>
+      <c r="H69">
+        <v>-0.02735326248704986</v>
+      </c>
+      <c r="I69">
+        <v>0.01717401908033449</v>
+      </c>
+      <c r="J69">
+        <v>-0.02626641123734244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.003967170620512382</v>
+        <v>-0.046100597692724</v>
       </c>
       <c r="C71">
-        <v>-0.2739878920901746</v>
+        <v>0.1898324836130809</v>
       </c>
       <c r="D71">
-        <v>0.01202790186151662</v>
+        <v>-0.1698658000971014</v>
       </c>
       <c r="E71">
-        <v>-0.07708712807602978</v>
+        <v>0.0382930936327931</v>
       </c>
       <c r="F71">
-        <v>0.01173670496564582</v>
+        <v>-0.0725940094671368</v>
       </c>
       <c r="G71">
-        <v>-0.05414724095353887</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01234327819689904</v>
+      </c>
+      <c r="H71">
+        <v>0.0291933696993986</v>
+      </c>
+      <c r="I71">
+        <v>-0.1319706234002971</v>
+      </c>
+      <c r="J71">
+        <v>-0.02548049882182621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1151187554625588</v>
+        <v>-0.1199786826235185</v>
       </c>
       <c r="C72">
-        <v>-0.01300617446782671</v>
+        <v>-0.01412047716251201</v>
       </c>
       <c r="D72">
-        <v>-0.04939232636360041</v>
+        <v>0.0006164072167360805</v>
       </c>
       <c r="E72">
-        <v>-0.09341809221790745</v>
+        <v>-0.05422355130701499</v>
       </c>
       <c r="F72">
-        <v>-0.01499116627278688</v>
+        <v>-0.08582627243919617</v>
       </c>
       <c r="G72">
-        <v>0.002642917648693363</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05349884355758457</v>
+      </c>
+      <c r="H72">
+        <v>-0.01847754628253898</v>
+      </c>
+      <c r="I72">
+        <v>0.03504990055881282</v>
+      </c>
+      <c r="J72">
+        <v>0.08764183400009738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2704106311740345</v>
+        <v>-0.2607515128656568</v>
       </c>
       <c r="C73">
-        <v>-0.1789625026049786</v>
+        <v>0.02789141132859867</v>
       </c>
       <c r="D73">
-        <v>0.02385483071758998</v>
+        <v>-0.1380175556704616</v>
       </c>
       <c r="E73">
-        <v>-0.3333676277744168</v>
+        <v>0.03573540129135994</v>
       </c>
       <c r="F73">
-        <v>0.02322044036335189</v>
+        <v>-0.3127624672437709</v>
       </c>
       <c r="G73">
-        <v>0.008930002988225334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2120368944766892</v>
+      </c>
+      <c r="H73">
+        <v>0.4500504556531394</v>
+      </c>
+      <c r="I73">
+        <v>0.2858442325917487</v>
+      </c>
+      <c r="J73">
+        <v>0.1113178632140295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.161066344757913</v>
+        <v>-0.1528080198233748</v>
       </c>
       <c r="C74">
-        <v>-0.007747837894601961</v>
+        <v>-0.02584588944634815</v>
       </c>
       <c r="D74">
-        <v>-0.04177668723386144</v>
+        <v>-0.000230820361816915</v>
       </c>
       <c r="E74">
-        <v>0.01521148446169021</v>
+        <v>-0.04788612889121176</v>
       </c>
       <c r="F74">
-        <v>-0.05334227164384245</v>
+        <v>0.04805688080327038</v>
       </c>
       <c r="G74">
-        <v>-0.06110732516042421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01663087355154655</v>
+      </c>
+      <c r="H74">
+        <v>0.02958225709439338</v>
+      </c>
+      <c r="I74">
+        <v>0.01356772553156411</v>
+      </c>
+      <c r="J74">
+        <v>-0.08153363154008227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2375883943144271</v>
+        <v>-0.2484059833007178</v>
       </c>
       <c r="C75">
-        <v>-0.01663790835009636</v>
+        <v>-0.02856716543391476</v>
       </c>
       <c r="D75">
-        <v>-0.0551764484972586</v>
+        <v>-0.017006078714861</v>
       </c>
       <c r="E75">
-        <v>0.1375768640020283</v>
+        <v>-0.1033634488706258</v>
       </c>
       <c r="F75">
-        <v>-0.04836372012647447</v>
+        <v>0.1429973609858115</v>
       </c>
       <c r="G75">
-        <v>-0.01748665872422196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005932121021538791</v>
+      </c>
+      <c r="H75">
+        <v>0.01718703140493315</v>
+      </c>
+      <c r="I75">
+        <v>-0.08314750446116348</v>
+      </c>
+      <c r="J75">
+        <v>-0.06529691674469551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2467304713614391</v>
+        <v>-0.2703669825611481</v>
       </c>
       <c r="C76">
-        <v>-0.01911709915106753</v>
+        <v>-0.009354647767836285</v>
       </c>
       <c r="D76">
-        <v>-0.09775641161199954</v>
+        <v>0.01603890546518878</v>
       </c>
       <c r="E76">
-        <v>0.1262711543364035</v>
+        <v>-0.130000827775158</v>
       </c>
       <c r="F76">
-        <v>-0.06990461951357615</v>
+        <v>0.1699837574983573</v>
       </c>
       <c r="G76">
-        <v>-0.02834290925825834</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04914735102623671</v>
+      </c>
+      <c r="H76">
+        <v>0.04455335257068592</v>
+      </c>
+      <c r="I76">
+        <v>0.005926747115379024</v>
+      </c>
+      <c r="J76">
+        <v>-0.07140756843808249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1297089542730188</v>
+        <v>-0.1294767870435342</v>
       </c>
       <c r="C77">
-        <v>0.015138248786653</v>
+        <v>-0.05635611828764902</v>
       </c>
       <c r="D77">
-        <v>0.03889599819160446</v>
+        <v>0.02806811734030286</v>
       </c>
       <c r="E77">
-        <v>-0.1560441647652059</v>
+        <v>0.03842946919628707</v>
       </c>
       <c r="F77">
-        <v>0.007224010437459336</v>
+        <v>-0.170224070634874</v>
       </c>
       <c r="G77">
-        <v>0.07287593882732306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01522672470713751</v>
+      </c>
+      <c r="H77">
+        <v>-0.2004842860240016</v>
+      </c>
+      <c r="I77">
+        <v>-0.1344965781613689</v>
+      </c>
+      <c r="J77">
+        <v>-0.1492572052198494</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08601261034534007</v>
+        <v>-0.08337508879245639</v>
       </c>
       <c r="C78">
-        <v>0.03382410774769525</v>
+        <v>-0.05058841805999704</v>
       </c>
       <c r="D78">
-        <v>0.01015723619351677</v>
+        <v>0.0399083064531635</v>
       </c>
       <c r="E78">
-        <v>-0.06216883872041763</v>
+        <v>-0.001363247948016388</v>
       </c>
       <c r="F78">
-        <v>0.01874700965505693</v>
+        <v>-0.08428458689420762</v>
       </c>
       <c r="G78">
-        <v>-0.02186040888578631</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01596552716407117</v>
+      </c>
+      <c r="H78">
+        <v>-0.03413269133488749</v>
+      </c>
+      <c r="I78">
+        <v>-0.006919691168047509</v>
+      </c>
+      <c r="J78">
+        <v>-0.05218741701400547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06972485880525246</v>
+        <v>-0.1486464484735126</v>
       </c>
       <c r="C80">
-        <v>0.01335246414196382</v>
+        <v>0.6171327367498441</v>
       </c>
       <c r="D80">
-        <v>0.02904488158453741</v>
+        <v>0.7522531619520809</v>
       </c>
       <c r="E80">
-        <v>-0.00386019522322514</v>
+        <v>0.06495322783049942</v>
       </c>
       <c r="F80">
-        <v>-0.08848157131330373</v>
+        <v>-0.04638965700883918</v>
       </c>
       <c r="G80">
-        <v>0.9163947656896013</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04285376993161318</v>
+      </c>
+      <c r="H80">
+        <v>0.05335944552934938</v>
+      </c>
+      <c r="I80">
+        <v>-0.008728564048367773</v>
+      </c>
+      <c r="J80">
+        <v>0.1046333597602332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1620726295685623</v>
+        <v>-0.1817873523562497</v>
       </c>
       <c r="C81">
-        <v>-0.01583236581616792</v>
+        <v>-0.006276632752558248</v>
       </c>
       <c r="D81">
-        <v>-0.04169012754528994</v>
+        <v>-0.006126988945866886</v>
       </c>
       <c r="E81">
-        <v>0.148211971431636</v>
+        <v>-0.08387661529068959</v>
       </c>
       <c r="F81">
-        <v>-0.0900171794404831</v>
+        <v>0.1514816823989653</v>
       </c>
       <c r="G81">
-        <v>-0.01664381575246745</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02489107084869277</v>
+      </c>
+      <c r="H81">
+        <v>0.01168333721342382</v>
+      </c>
+      <c r="I81">
+        <v>-0.04098429760853452</v>
+      </c>
+      <c r="J81">
+        <v>-0.0263758556499877</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09181040913427212</v>
+        <v>-0.06795342286130884</v>
       </c>
       <c r="C83">
-        <v>0.03909983414573179</v>
+        <v>-0.0457371923111119</v>
       </c>
       <c r="D83">
-        <v>0.07741201447276851</v>
+        <v>0.01443412980989357</v>
       </c>
       <c r="E83">
-        <v>-0.03168271970827118</v>
+        <v>0.03909973421001995</v>
       </c>
       <c r="F83">
-        <v>0.06870078668744341</v>
+        <v>-0.0543578749441779</v>
       </c>
       <c r="G83">
-        <v>-0.01937613683745191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05973011651665636</v>
+      </c>
+      <c r="H83">
+        <v>-0.01125806257587747</v>
+      </c>
+      <c r="I83">
+        <v>0.008963349942266928</v>
+      </c>
+      <c r="J83">
+        <v>-0.08043478926634307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.238134944253004</v>
+        <v>-0.2563128826510448</v>
       </c>
       <c r="C85">
-        <v>0.04407203685342523</v>
+        <v>-0.04792460942510536</v>
       </c>
       <c r="D85">
-        <v>-0.05657889912769709</v>
+        <v>0.02280080657294232</v>
       </c>
       <c r="E85">
-        <v>0.1521664067064505</v>
+        <v>-0.08891854610425497</v>
       </c>
       <c r="F85">
-        <v>-0.06049680491101582</v>
+        <v>0.1697613602422151</v>
       </c>
       <c r="G85">
-        <v>-0.01132883656465096</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.00305282769685315</v>
+      </c>
+      <c r="H85">
+        <v>-0.01433936846493724</v>
+      </c>
+      <c r="I85">
+        <v>-0.02820805369411259</v>
+      </c>
+      <c r="J85">
+        <v>-0.1053964981898845</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04645636012009688</v>
+        <v>-0.02532059491310215</v>
       </c>
       <c r="C86">
-        <v>0.04235924604077825</v>
+        <v>-0.04599598951192729</v>
       </c>
       <c r="D86">
-        <v>-0.02201667147959844</v>
+        <v>0.03418926900931187</v>
       </c>
       <c r="E86">
-        <v>-0.0612861263817993</v>
+        <v>-0.0105156154483876</v>
       </c>
       <c r="F86">
-        <v>-0.002746664297368586</v>
+        <v>-0.06981307665134241</v>
       </c>
       <c r="G86">
-        <v>-0.03738633327770778</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.01098961885924344</v>
+      </c>
+      <c r="H86">
+        <v>-0.06885930693004873</v>
+      </c>
+      <c r="I86">
+        <v>-0.01656823247589607</v>
+      </c>
+      <c r="J86">
+        <v>-0.05640659649032717</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.01871044750498747</v>
+        <v>-0.03268212496675831</v>
       </c>
       <c r="C87">
-        <v>-0.05126834772420275</v>
+        <v>0.01339205945383168</v>
       </c>
       <c r="D87">
-        <v>-0.01068767054932191</v>
+        <v>-0.01620444891936014</v>
       </c>
       <c r="E87">
-        <v>-0.09161481893785874</v>
+        <v>-0.002683012553939011</v>
       </c>
       <c r="F87">
-        <v>-0.01697255915705524</v>
+        <v>-0.1034250334220706</v>
       </c>
       <c r="G87">
-        <v>-0.06538711330432422</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01964082134680097</v>
+      </c>
+      <c r="H87">
+        <v>-0.02297688583338483</v>
+      </c>
+      <c r="I87">
+        <v>0.01973468348443884</v>
+      </c>
+      <c r="J87">
+        <v>-0.004780130199963933</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.0380278432881834</v>
+        <v>-0.02800098387493387</v>
       </c>
       <c r="C88">
-        <v>0.02740133848972283</v>
+        <v>-0.009120298632462789</v>
       </c>
       <c r="D88">
-        <v>-0.01032192041371666</v>
+        <v>0.02173940822434551</v>
       </c>
       <c r="E88">
-        <v>0.008951957061367755</v>
+        <v>-0.01668585747640025</v>
       </c>
       <c r="F88">
-        <v>-0.01096730165786038</v>
+        <v>0.007605435029826428</v>
       </c>
       <c r="G88">
-        <v>-0.003678550857387904</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03794019397347268</v>
+      </c>
+      <c r="H88">
+        <v>-0.03426466211444159</v>
+      </c>
+      <c r="I88">
+        <v>0.03627364801742492</v>
+      </c>
+      <c r="J88">
+        <v>-0.02912805799465545</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01707050619139758</v>
+        <v>-0.06104364713558444</v>
       </c>
       <c r="C89">
-        <v>-0.4143048817353048</v>
+        <v>0.2900637272614358</v>
       </c>
       <c r="D89">
-        <v>0.1067751123521883</v>
+        <v>-0.2695949693645204</v>
       </c>
       <c r="E89">
-        <v>0.01379398637053075</v>
+        <v>0.06417468431280476</v>
       </c>
       <c r="F89">
-        <v>0.009395111812474223</v>
+        <v>-0.02591474489814283</v>
       </c>
       <c r="G89">
-        <v>-0.0330706900295261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.05196327801613024</v>
+      </c>
+      <c r="H89">
+        <v>-0.04292941113512365</v>
+      </c>
+      <c r="I89">
+        <v>-0.2730925532351607</v>
+      </c>
+      <c r="J89">
+        <v>-0.04231171170263357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01387904184441498</v>
+        <v>-0.04396569525542095</v>
       </c>
       <c r="C90">
-        <v>-0.3102005266506616</v>
+        <v>0.2564348418660599</v>
       </c>
       <c r="D90">
-        <v>0.03774890122310905</v>
+        <v>-0.2150985678810487</v>
       </c>
       <c r="E90">
-        <v>-0.03860953676425964</v>
+        <v>0.04512284358092961</v>
       </c>
       <c r="F90">
-        <v>0.01099616825132136</v>
+        <v>-0.03901659318276729</v>
       </c>
       <c r="G90">
-        <v>-0.04615285513732804</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02577980074452016</v>
+      </c>
+      <c r="H90">
+        <v>0.0006693490691295584</v>
+      </c>
+      <c r="I90">
+        <v>-0.2179033377144708</v>
+      </c>
+      <c r="J90">
+        <v>-0.03176959792051023</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2965392949362106</v>
+        <v>-0.3114565328762585</v>
       </c>
       <c r="C91">
-        <v>0.01507940724874762</v>
+        <v>-0.04036618005194843</v>
       </c>
       <c r="D91">
-        <v>-0.0501700549277717</v>
+        <v>0.008234927362015533</v>
       </c>
       <c r="E91">
-        <v>0.2994293379796734</v>
+        <v>-0.09664004358981311</v>
       </c>
       <c r="F91">
-        <v>-0.1397612634494682</v>
+        <v>0.291753166056331</v>
       </c>
       <c r="G91">
-        <v>0.09584971900902797</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03891268800108733</v>
+      </c>
+      <c r="H91">
+        <v>0.01953231799257284</v>
+      </c>
+      <c r="I91">
+        <v>-0.09230939387049061</v>
+      </c>
+      <c r="J91">
+        <v>-0.124077238702207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.004466457938772193</v>
+        <v>-0.09629279314383687</v>
       </c>
       <c r="C92">
-        <v>-0.4234494887337701</v>
+        <v>0.3496795577645829</v>
       </c>
       <c r="D92">
-        <v>0.2259742454727886</v>
+        <v>-0.2650301914857256</v>
       </c>
       <c r="E92">
-        <v>0.1269542973540536</v>
+        <v>0.08559177510525723</v>
       </c>
       <c r="F92">
-        <v>-0.04563946545302776</v>
+        <v>0.1266816535272735</v>
       </c>
       <c r="G92">
-        <v>0.1469811883029641</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1314040326309381</v>
+      </c>
+      <c r="H92">
+        <v>-0.4200271560761948</v>
+      </c>
+      <c r="I92">
+        <v>0.7405396275491943</v>
+      </c>
+      <c r="J92">
+        <v>-0.05628668253576254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02342950804796233</v>
+        <v>-0.04623507940285693</v>
       </c>
       <c r="C93">
-        <v>-0.3732965240913018</v>
+        <v>0.3055169044628343</v>
       </c>
       <c r="D93">
-        <v>0.08471130971622037</v>
+        <v>-0.2751459235874081</v>
       </c>
       <c r="E93">
-        <v>0.03759164414156653</v>
+        <v>0.08151319946258402</v>
       </c>
       <c r="F93">
-        <v>-0.00979772315875976</v>
+        <v>0.01024252068506161</v>
       </c>
       <c r="G93">
-        <v>0.03786667274889251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03624985405293128</v>
+      </c>
+      <c r="H93">
+        <v>0.02201675500187094</v>
+      </c>
+      <c r="I93">
+        <v>-0.1854272541899087</v>
+      </c>
+      <c r="J93">
+        <v>-0.01881264855698158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.286303851813751</v>
+        <v>-0.3121750723877632</v>
       </c>
       <c r="C94">
-        <v>-0.05430309268115253</v>
+        <v>-0.0198204026855207</v>
       </c>
       <c r="D94">
-        <v>0.01668353086257648</v>
+        <v>-0.04221001566383926</v>
       </c>
       <c r="E94">
-        <v>0.3875896790295806</v>
+        <v>-0.1292435134463285</v>
       </c>
       <c r="F94">
-        <v>-0.3821113717932108</v>
+        <v>0.3531287778677961</v>
       </c>
       <c r="G94">
-        <v>-0.1558448995621244</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.173595943916262</v>
+      </c>
+      <c r="H94">
+        <v>-0.1598902827219267</v>
+      </c>
+      <c r="I94">
+        <v>-0.06622715061486754</v>
+      </c>
+      <c r="J94">
+        <v>0.1892383027945126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1973673366556432</v>
+        <v>-0.1293873691510997</v>
       </c>
       <c r="C95">
-        <v>-0.02768490278440934</v>
+        <v>-0.1007058833935999</v>
       </c>
       <c r="D95">
-        <v>0.006930675955533614</v>
+        <v>-0.04671123073929768</v>
       </c>
       <c r="E95">
-        <v>0.359391624159892</v>
+        <v>-0.0280735495325968</v>
       </c>
       <c r="F95">
-        <v>0.8617131941825433</v>
+        <v>0.05018476057482667</v>
       </c>
       <c r="G95">
-        <v>0.05992198881788506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8864259055343736</v>
+      </c>
+      <c r="H95">
+        <v>0.2282066728635248</v>
+      </c>
+      <c r="I95">
+        <v>-0.0009668779269348034</v>
+      </c>
+      <c r="J95">
+        <v>0.2819490572275742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2167048568565168</v>
+        <v>-0.2017391618892726</v>
       </c>
       <c r="C98">
-        <v>-0.1248329974917071</v>
+        <v>0.01922206720716359</v>
       </c>
       <c r="D98">
-        <v>0.03680497011298928</v>
+        <v>-0.09640564728950871</v>
       </c>
       <c r="E98">
-        <v>-0.1053845559387161</v>
+        <v>0.03004810763067661</v>
       </c>
       <c r="F98">
-        <v>0.03493253048303543</v>
+        <v>-0.1560896932150683</v>
       </c>
       <c r="G98">
-        <v>-0.04789175835401709</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1134663094851067</v>
+      </c>
+      <c r="H98">
+        <v>0.3329165873296943</v>
+      </c>
+      <c r="I98">
+        <v>0.139285453264701</v>
+      </c>
+      <c r="J98">
+        <v>0.08995890489491573</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.019949277838283</v>
+        <v>-0.01469489343474426</v>
       </c>
       <c r="C101">
-        <v>0.01344177889106196</v>
+        <v>-0.02087824989488816</v>
       </c>
       <c r="D101">
-        <v>-0.02629087013150805</v>
+        <v>0.02229058539191668</v>
       </c>
       <c r="E101">
-        <v>-0.02564894309844817</v>
+        <v>-0.03075462684788123</v>
       </c>
       <c r="F101">
-        <v>0.0153219458208635</v>
+        <v>-0.06810137530390997</v>
       </c>
       <c r="G101">
-        <v>-0.03136247413315173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02335348640287545</v>
+      </c>
+      <c r="H101">
+        <v>-0.1104853953244472</v>
+      </c>
+      <c r="I101">
+        <v>0.006927042964094524</v>
+      </c>
+      <c r="J101">
+        <v>0.1192181077108087</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.119181987106816</v>
+        <v>-0.1229201443648069</v>
       </c>
       <c r="C102">
-        <v>0.006898346083620959</v>
+        <v>-0.01795914971014245</v>
       </c>
       <c r="D102">
-        <v>-0.03555434420382598</v>
+        <v>0.01351015487087899</v>
       </c>
       <c r="E102">
-        <v>0.08806685324541672</v>
+        <v>-0.05470894909800229</v>
       </c>
       <c r="F102">
-        <v>-0.00153168758480392</v>
+        <v>0.09135875066370309</v>
       </c>
       <c r="G102">
-        <v>0.009191491479799968</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02541779002391085</v>
+      </c>
+      <c r="H102">
+        <v>0.0246658230267471</v>
+      </c>
+      <c r="I102">
+        <v>-0.03774996022042926</v>
+      </c>
+      <c r="J102">
+        <v>-0.04680610612372452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01724954414813941</v>
+        <v>-0.03067580328245807</v>
       </c>
       <c r="C103">
-        <v>-0.0004196643361274497</v>
+        <v>-0.001551341977423271</v>
       </c>
       <c r="D103">
-        <v>-0.01130302570416716</v>
+        <v>0.009786742336966454</v>
       </c>
       <c r="E103">
-        <v>0.02537552559697704</v>
+        <v>-0.02035278295587112</v>
       </c>
       <c r="F103">
-        <v>-0.007105324024097194</v>
+        <v>0.02021188711351578</v>
       </c>
       <c r="G103">
-        <v>-0.01859448283399003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01813265137168554</v>
+      </c>
+      <c r="H103">
+        <v>-0.01283526798815948</v>
+      </c>
+      <c r="I103">
+        <v>-0.02180673522160938</v>
+      </c>
+      <c r="J103">
+        <v>-0.01821001637181417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
